--- a/biology/Médecine/Centre_hospitalier_universitaire_de_Poitiers/Centre_hospitalier_universitaire_de_Poitiers.xlsx
+++ b/biology/Médecine/Centre_hospitalier_universitaire_de_Poitiers/Centre_hospitalier_universitaire_de_Poitiers.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le centre hospitalier universitaire de Poitiers (ou CHU de Poitiers) est situé sur le site de La Milétrie, route de Limoges, au sud-est de la ville de Poitiers en France.
@@ -512,9 +524,11 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le CHU de Poitiers est implanté sur le site de la Milétrie. Le domaine est acheté par Olivier Le Roux à la fin du XVe siècle, à l'abbaye Saint-Hilaire-de-la-Celle ; son lieutenant Mathurin Millet y fait construire en 1520 un logis, qui porte son nom. Ce logis existe toujours[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le CHU de Poitiers est implanté sur le site de la Milétrie. Le domaine est acheté par Olivier Le Roux à la fin du XVe siècle, à l'abbaye Saint-Hilaire-de-la-Celle ; son lieutenant Mathurin Millet y fait construire en 1520 un logis, qui porte son nom. Ce logis existe toujours.
 En 1938, le site de la Milétrie est acheté par le département de la Vienne, qui souhaite y construire un hôpital psychiatrique près de la ferme de la Milétrie, définitivement expropriée le 7 février 1941.
 Si la Seconde Guerre mondiale suspendra ce projet qui ne reprendra que dans les années 1950,  il sera utilisé comme ferme pour nourrir malades et vieillards, avant la construction, quelques années plus tard donc, des pavillons Le Blaye, Pinel, et Minkowski, puis du pavillon “H” renommé Pierre Janet par la suite.
 Dans les années 1960, plus au nord, on transforme l'ancienne base militaire construite par l'armée américaine sur le site de Châlons en hôpital psychiatrique. Les malades chroniques y seront déplacés à partir de l'année 1968.  
@@ -525,7 +539,7 @@
 Au début des années 2000, l'ensemble des bâtiments de l'hôpital psychiatrique de Châlons devenus trop vétustes sont démolis. L'ensemble des services de psychiatrie se retrouve désormais au centre hospitalier Henri Laborit sur le site de la Miletrie.
 En janvier 2006, un nouveau bâtiment est mis en service. Il est nommé UBM (Urgences et biologie médicale) et regroupe les services d’urgences générales adulte et pédiatrique, le SAMU-SMUR, le centre 15, ainsi qu’un plateau de biologie médicale accueillant la totalité des laboratoires.
 En mars 2009, c’est au tour du pôle régional de cancérologie d’ouvrir ses portes. Il dispose d’une surface de 13 000 m2, répartie sur quatre niveaux, et d’une capacité de 135 lits et places.
-En janvier 2017, le CHU de Poitiers inaugure son centre régional cardiovasculaire en présence de François Hollande, président de la République. Avec ses 25 000 m² de surface, le centre cardiovasculaire regroupe les activités de cardiologie, de médecine vasculaire, de chirurgie cardio-thoracique et vasculaire[2]. 
+En janvier 2017, le CHU de Poitiers inaugure son centre régional cardiovasculaire en présence de François Hollande, président de la République. Avec ses 25 000 m² de surface, le centre cardiovasculaire regroupe les activités de cardiologie, de médecine vasculaire, de chirurgie cardio-thoracique et vasculaire. 
 Novembre 2018, inauguration de "La Vie la santé", un lieu inspiré des "maggie's center" du Royaume-uni. Il s'agit d'un endroit qui offre aux patients et aidants, un lieu où l'on apprend à mieux vivre avec une maladie chronique au quotidien et où des ateliers d'éducation thérapeutique du patient sont dispensés dans cette optique là. 
 En novembre 2019, le CHU de Poitiers inaugure l'IRM 7 tesla, le troisième en activité en France dans le cadre de la recherche mais, le seul à aussi être utilisé pour des examens cliniques. 
 L'hôpital est géré par Jean-Pierre Dewitte depuis 1998. Depuis 2020, la directrice de l'hôpital est Anne Costa.
@@ -557,9 +571,11 @@
           <t>Activités de formation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le CHU de Poitiers organise plusieurs formations paramédicales[3]:
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le CHU de Poitiers organise plusieurs formations paramédicales:
 un institut de formation des ambulanciers
 un institut de formation d'aide-soignant
 un institut de formation des cadres de santé
@@ -569,7 +585,7 @@
 un institut de formation en ergothérapie, en partenariat avec l'université de Poitiers
 un institut de formation en masso-kinésithérapie, en partenariat avec l'université de Poitiers
 un cycle préparatoire aux concours d'entrée.
-La faculté de médecine et de pharmacie de l'université de Poitiers située auparavant en centre-ville près de l'ancien Hôtel-Dieu de Poitiers, se trouve désormais juste à côté et amène des synergies[4]. L'ancienne faculté de médecine proche du jardin des plantes a été démolie en 2018.
+La faculté de médecine et de pharmacie de l'université de Poitiers située auparavant en centre-ville près de l'ancien Hôtel-Dieu de Poitiers, se trouve désormais juste à côté et amène des synergies. L'ancienne faculté de médecine proche du jardin des plantes a été démolie en 2018.
 </t>
         </is>
       </c>
@@ -598,9 +614,11 @@
           <t>Fonds de dotation Aliénor</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Créé par le CHU de Poitiers, le fonds de dotation Aliénor[5] est destiné à compléter les moyens de l'établissement consacrés à la recherche en santé et en innovation. Il doit notamment permettre le financement et la promotion de l’innovation et de la recherche. A ce jour, douze projets sont soutenus par le fonds de dotation.
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Créé par le CHU de Poitiers, le fonds de dotation Aliénor est destiné à compléter les moyens de l'établissement consacrés à la recherche en santé et en innovation. Il doit notamment permettre le financement et la promotion de l’innovation et de la recherche. A ce jour, douze projets sont soutenus par le fonds de dotation.
 </t>
         </is>
       </c>
